--- a/ConsoleApp1/Sample/5-StatFile.xlsx
+++ b/ConsoleApp1/Sample/5-StatFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Component Index</x:t>
   </x:si>
@@ -25,16 +25,19 @@
     <x:t>Average Similarity</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file1/, https://example.com/file2/</x:t>
+    <x:t>Component Count</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file3/, https://example.com/file4/</x:t>
+    <x:t>5, 6</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file5/, https://example.com/file6/</x:t>
+    <x:t>3, 4</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file7/, https://example.com/file8/, https://example.com/file9/, https://example.com/file10/, https://example.com/file11/</x:t>
+    <x:t>1, 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7, 8, 9, 10, 11</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -385,18 +388,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C5"/>
+  <x:dimension ref="A1:D5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="17.040625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="124.810625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.490625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -406,49 +410,64 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>56.5</x:v>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>60.5</x:v>
       </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>56.5</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>51.2</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -699,9 +718,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6EC227-BE1B-4FC3-84F3-3CDDEB221080}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44BA8A6-1061-4DF9-8796-9A2FDBF13DE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643B15EC-2898-4C47-9914-887FF4300C83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737B8061-7EC0-4C47-A4DF-46F1CFF9E76A}"/>
 </file>